--- a/I card/Design Mapping.xlsx
+++ b/I card/Design Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\ICard\icard-assignments\I card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dadu\Desktop\New folder (5)\icard-assignments\I card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E5DEC-BFE7-460C-9F39-A590B665AD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCFE543-961F-4778-BC6F-ECB3CB660D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>Sr No</t>
   </si>
@@ -238,6 +238,189 @@
   </si>
   <si>
     <t>Design No. 34</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Patil</t>
+  </si>
+  <si>
+    <t>Harsha Dattatraya Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikrant Khot </t>
+  </si>
+  <si>
+    <t>Rupali Raut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Srikanth Dandewar</t>
+  </si>
+  <si>
+    <t>Manjusha Hinge</t>
+  </si>
+  <si>
+    <t>Rohan Jadhav</t>
+  </si>
+  <si>
+    <t>Siddheshwar Raut</t>
+  </si>
+  <si>
+    <t>Kalpesh Khairnar</t>
+  </si>
+  <si>
+    <t>Sakshi Biradar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swapnil Shinde </t>
+  </si>
+  <si>
+    <t>Arti Kadam</t>
+  </si>
+  <si>
+    <t>Rahul Nachan</t>
+  </si>
+  <si>
+    <t>Renuka Khandagale</t>
+  </si>
+  <si>
+    <t>Chetan Sathe</t>
+  </si>
+  <si>
+    <t>Pawan Narwade</t>
+  </si>
+  <si>
+    <t>Nikita Fartade</t>
+  </si>
+  <si>
+    <t>Karan Gupta</t>
+  </si>
+  <si>
+    <t>Sonali Mhaismale</t>
+  </si>
+  <si>
+    <t>Sandeep Gaikwad</t>
+  </si>
+  <si>
+    <t>Diksha fande</t>
+  </si>
+  <si>
+    <t>Manoj Bhamre</t>
+  </si>
+  <si>
+    <t>Atharva Aher</t>
+  </si>
+  <si>
+    <t>Shubham Dale</t>
+  </si>
+  <si>
+    <t>Aishwarya Janmale</t>
+  </si>
+  <si>
+    <t>Saurabh Golhar</t>
+  </si>
+  <si>
+    <t>Aditya Narwade</t>
+  </si>
+  <si>
+    <t>Dnyaneshwar Wankhede</t>
+  </si>
+  <si>
+    <t>Amol Takbhate</t>
+  </si>
+  <si>
+    <t>Rehan Shaikh</t>
+  </si>
+  <si>
+    <t>Design No. 35</t>
+  </si>
+  <si>
+    <t>Design No. 36</t>
+  </si>
+  <si>
+    <t>Design No. 37</t>
+  </si>
+  <si>
+    <t>Design No. 38</t>
+  </si>
+  <si>
+    <t>Design No. 39</t>
+  </si>
+  <si>
+    <t>Design No. 40</t>
+  </si>
+  <si>
+    <t>Design No. 41</t>
+  </si>
+  <si>
+    <t>Design No. 42</t>
+  </si>
+  <si>
+    <t>Design No. 43</t>
+  </si>
+  <si>
+    <t>Design No. 44</t>
+  </si>
+  <si>
+    <t>Design No. 45</t>
+  </si>
+  <si>
+    <t>Design No. 46</t>
+  </si>
+  <si>
+    <t>Design No. 47</t>
+  </si>
+  <si>
+    <t>Design No. 48</t>
+  </si>
+  <si>
+    <t>Design No. 49</t>
+  </si>
+  <si>
+    <t>Design No. 50</t>
+  </si>
+  <si>
+    <t>Design No. 51</t>
+  </si>
+  <si>
+    <t>Design No. 52</t>
+  </si>
+  <si>
+    <t>Design No. 53</t>
+  </si>
+  <si>
+    <t>Design No. 54</t>
+  </si>
+  <si>
+    <t>Design No. 55</t>
+  </si>
+  <si>
+    <t>Design No. 56</t>
+  </si>
+  <si>
+    <t>Design No. 57</t>
+  </si>
+  <si>
+    <t>Design No. 58</t>
+  </si>
+  <si>
+    <t>Design No. 59</t>
+  </si>
+  <si>
+    <t>Design No. 60</t>
+  </si>
+  <si>
+    <t>Design No. 61</t>
+  </si>
+  <si>
+    <t>Design No. 62</t>
+  </si>
+  <si>
+    <t>Design No. 63</t>
+  </si>
+  <si>
+    <t>Design No. 64</t>
+  </si>
+  <si>
+    <t>Design No. 65</t>
   </si>
 </sst>
 </file>
@@ -285,15 +468,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -316,11 +505,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +540,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,20 +822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:E38"/>
+  <dimension ref="C4:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +847,14 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -654,8 +864,14 @@
       <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>2</v>
       </c>
@@ -665,8 +881,14 @@
       <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -676,8 +898,14 @@
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>4</v>
       </c>
@@ -687,8 +915,14 @@
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>5</v>
       </c>
@@ -698,8 +932,14 @@
       <c r="E9" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>6</v>
       </c>
@@ -709,8 +949,14 @@
       <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>7</v>
       </c>
@@ -720,8 +966,14 @@
       <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>8</v>
       </c>
@@ -731,8 +983,14 @@
       <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>9</v>
       </c>
@@ -742,8 +1000,14 @@
       <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>10</v>
       </c>
@@ -753,8 +1017,14 @@
       <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>11</v>
       </c>
@@ -764,8 +1034,14 @@
       <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>12</v>
       </c>
@@ -775,8 +1051,14 @@
       <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>13</v>
       </c>
@@ -786,8 +1068,14 @@
       <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>14</v>
       </c>
@@ -797,8 +1085,14 @@
       <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>15</v>
       </c>
@@ -808,8 +1102,14 @@
       <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>16</v>
       </c>
@@ -819,8 +1119,14 @@
       <c r="E20" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>17</v>
       </c>
@@ -830,8 +1136,14 @@
       <c r="E21" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>18</v>
       </c>
@@ -841,8 +1153,14 @@
       <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>19</v>
       </c>
@@ -852,8 +1170,14 @@
       <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>20</v>
       </c>
@@ -863,8 +1187,14 @@
       <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>21</v>
       </c>
@@ -874,8 +1204,14 @@
       <c r="E25" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>22</v>
       </c>
@@ -885,8 +1221,14 @@
       <c r="E26" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>23</v>
       </c>
@@ -896,8 +1238,14 @@
       <c r="E27" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>24</v>
       </c>
@@ -907,8 +1255,14 @@
       <c r="E28" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>25</v>
       </c>
@@ -918,8 +1272,14 @@
       <c r="E29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>26</v>
       </c>
@@ -929,8 +1289,14 @@
       <c r="E30" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
         <v>27</v>
       </c>
@@ -940,8 +1306,14 @@
       <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>28</v>
       </c>
@@ -951,8 +1323,14 @@
       <c r="E32" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>29</v>
       </c>
@@ -962,8 +1340,14 @@
       <c r="E33" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>30</v>
       </c>
@@ -973,8 +1357,14 @@
       <c r="E34" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>31</v>
       </c>
@@ -984,8 +1374,12 @@
       <c r="E35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="H35" s="7"/>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>32</v>
       </c>
@@ -996,7 +1390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
         <v>33</v>
       </c>
@@ -1007,7 +1401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
         <v>34</v>
       </c>
